--- a/excel/Format_excel_mahasiswa.xlsx
+++ b/excel/Format_excel_mahasiswa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ci_upload\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lab_hardware\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>NIM</t>
   </si>
@@ -32,19 +32,10 @@
     <t>Nama Mahasiswa</t>
   </si>
   <si>
-    <t>Pembimbing 1</t>
-  </si>
-  <si>
-    <t>Pembimbing 2</t>
-  </si>
-  <si>
-    <t>Judul TA</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Kategori</t>
+    <t>Semester</t>
   </si>
 </sst>
 </file>
@@ -371,7 +362,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +377,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -395,17 +386,11 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/Format_excel_mahasiswa.xlsx
+++ b/excel/Format_excel_mahasiswa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>NIM</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Semester</t>
+  </si>
+  <si>
+    <t>Kelas</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +391,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
     </row>
